--- a/IMPORTANT DATA.xlsx
+++ b/IMPORTANT DATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julev\Desktop\NLP4HealthFinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678396AD-3077-4038-8188-0A546C0B8E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583685B2-744F-4BCA-863B-526733EF8E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0F4ADBD-B9E9-4423-8489-8C9910E669CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>Cohen's Kappa</t>
   </si>
@@ -245,6 +245,18 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,18 +266,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5E2A08-DF29-4A07-A058-2F45462183B7}">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,16 +631,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -673,150 +673,150 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>1.8608349900596399E-2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>-1.1594689968072501E-2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>2.97119786187494E-3</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>1.52566987440354E-2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>0.99077719730975999</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>5.9952378252735496E-3</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>0.38705959196219297</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>6.3105125327347494E-2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>-4.5985852620012299E-2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>6.1236730042583898E-2</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>1.52566987440354E-2</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>9.2156505311303594E-2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>5.9952378252735496E-3</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>8.7969899776911997E-2</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2">
         <v>6.1236730042583898E-2</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>5.2218455743879497E-2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>0.19271686980361699</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>-3.6999507831273003E-2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>0.192235441452723</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <v>8.8542207840401399E-2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>0.192235441452723</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
       <c r="F11" t="s">
         <v>17</v>
       </c>
@@ -835,88 +835,118 @@
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>0.109080841638981</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1.6057585825027601E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>1.43964562569213E-2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="2">
         <v>0.105758582502768</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="6"/>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.11517165005537</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <v>0.102436323366555</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="2">
         <v>1.43964562569213E-2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="2">
         <v>0.102436323366555</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="5"/>
+      <c r="G16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1.9379844961240299E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="2">
         <v>1.6057585825027601E-2</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="2">
         <v>0.11517165005537</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="2">
         <v>1.9379844961240299E-2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="2">
         <v>0.109634551495016</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.109634551495016</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -934,10 +964,10 @@
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="2">
         <v>16.3727598566329</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="2">
         <v>2.55767155355656E-3</v>
       </c>
       <c r="F21" s="1"/>
@@ -949,10 +979,10 @@
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="2">
         <v>10.6666666666642</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="2">
         <v>3.05770166276302E-2</v>
       </c>
       <c r="F22" s="1"/>
@@ -964,25 +994,25 @@
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="2">
         <v>64.681481481480901</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="11">
         <v>3.00310142514114E-13</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="2">
         <v>12.653061224503601</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="2">
         <v>1.31015003883291E-2</v>
       </c>
       <c r="F24" s="1"/>
@@ -994,10 +1024,10 @@
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="2">
         <v>34.711864406790298</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="11">
         <v>5.3234215794931896E-7</v>
       </c>
       <c r="F25" s="1"/>
@@ -1009,10 +1039,10 @@
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="2">
         <v>27.854545454554</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="11">
         <v>1.334881684275E-5</v>
       </c>
       <c r="F26" s="1"/>
@@ -1027,16 +1057,16 @@
       <c r="I27" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -1066,127 +1096,127 @@
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="2">
         <v>2.2839534781054299E-2</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="2">
         <v>-1.66156482902521E-2</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="2">
         <v>3.58455822430714E-3</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="2">
         <v>1.86952435546015E-2</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="2">
         <v>0.99082430111490505</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="2">
         <v>7.2677765050587597E-3</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="2">
         <v>0.45513606571790299</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="2">
         <v>7.4632286628442596E-2</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="2">
         <v>-6.6448123262560804E-2</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="2">
         <v>7.2407028300174897E-2</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="2">
         <v>1.86952435546015E-2</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="2">
         <v>0.116033608364449</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="2">
         <v>7.2677765050587597E-3</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="2">
         <v>0.99082430111490505</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="2">
         <v>7.2407028300174897E-2</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="2">
         <v>6.6509037806160506E-2</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="2">
         <v>0.194445904919055</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="2">
         <v>-4.3092423288888397E-2</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="2">
         <v>0.19418937045783899</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="2">
         <v>0.10377298511197899</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="2">
         <v>0.124725892714496</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
